--- a/Starmap/data/constellations.xlsx
+++ b/Starmap/data/constellations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ceci\Documents\Akane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MeowData\努力成为大角虫\愉♂悦\前端\toybox\web_toybox\Starmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33427,7 +33427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33578,7 +33578,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -33594,7 +33594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -33859,23 +33859,23 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="8.7265625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>346</v>
       </c>
@@ -33904,7 +33904,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -33931,7 +33931,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -33987,7 +33987,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -34014,7 +34014,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -34068,7 +34068,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -34095,7 +34095,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -34122,7 +34122,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -34149,7 +34149,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -34176,7 +34176,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -34203,7 +34203,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
@@ -34230,7 +34230,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
@@ -34257,7 +34257,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
@@ -34284,7 +34284,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
@@ -34311,7 +34311,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -34338,7 +34338,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -34365,7 +34365,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>116</v>
       </c>
@@ -34392,7 +34392,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>121</v>
       </c>
@@ -34419,7 +34419,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>133</v>
       </c>
@@ -34446,7 +34446,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>136</v>
       </c>
@@ -34473,7 +34473,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>160</v>
       </c>
@@ -34500,7 +34500,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -34527,7 +34527,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>183</v>
       </c>
@@ -34554,7 +34554,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>208</v>
       </c>
@@ -34581,7 +34581,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -34608,7 +34608,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>218</v>
       </c>
@@ -34635,7 +34635,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>228</v>
       </c>
@@ -34662,7 +34662,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>202</v>
       </c>
@@ -34689,7 +34689,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -34716,7 +34716,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -34743,7 +34743,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -34770,7 +34770,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -34797,7 +34797,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -34824,7 +34824,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
         <v>142</v>
       </c>
@@ -34851,7 +34851,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>199</v>
       </c>
@@ -34878,7 +34878,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>195</v>
       </c>
@@ -34905,7 +34905,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>277</v>
       </c>
@@ -34932,7 +34932,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>223</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -34988,7 +34988,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
@@ -35015,7 +35015,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -35042,7 +35042,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -35096,7 +35096,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>123</v>
       </c>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -35179,7 +35179,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
@@ -35206,7 +35206,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>110</v>
       </c>
@@ -35233,7 +35233,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
@@ -35260,7 +35260,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>177</v>
       </c>
@@ -35287,7 +35287,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
         <v>98</v>
       </c>
@@ -35314,7 +35314,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
         <v>192</v>
       </c>
@@ -35341,7 +35341,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
@@ -35368,7 +35368,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>139</v>
       </c>
@@ -35422,7 +35422,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>232</v>
       </c>
@@ -35449,7 +35449,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>186</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -35505,7 +35505,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>27</v>
       </c>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>174</v>
       </c>
@@ -35559,7 +35559,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -35586,7 +35586,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>103</v>
       </c>
@@ -35613,7 +35613,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>205</v>
       </c>
@@ -35640,7 +35640,7 @@
       </c>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>96</v>
       </c>
@@ -35667,7 +35667,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
         <v>163</v>
       </c>
@@ -35694,7 +35694,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>220</v>
       </c>
@@ -35721,7 +35721,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>148</v>
       </c>
@@ -35748,7 +35748,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>166</v>
       </c>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>50</v>
       </c>
@@ -35802,7 +35802,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>79</v>
       </c>
@@ -35829,7 +35829,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>107</v>
       </c>
@@ -35856,7 +35856,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>180</v>
       </c>
@@ -35883,7 +35883,7 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>15</v>
       </c>
@@ -35910,7 +35910,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -35937,7 +35937,7 @@
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
@@ -35964,7 +35964,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>211</v>
       </c>
@@ -35991,7 +35991,7 @@
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
@@ -36018,7 +36018,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>157</v>
       </c>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>45</v>
       </c>
@@ -36072,7 +36072,7 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
         <v>145</v>
       </c>
@@ -36099,7 +36099,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="4" t="s">
         <v>214</v>
       </c>
@@ -36126,7 +36126,7 @@
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
         <v>225</v>
       </c>
@@ -36153,7 +36153,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
         <v>112</v>
       </c>
@@ -36180,7 +36180,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
         <v>6</v>
       </c>
@@ -36207,7 +36207,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
         <v>57</v>
       </c>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
         <v>138</v>
       </c>
@@ -36261,7 +36261,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>151</v>
       </c>
@@ -36300,23 +36300,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="17.26953125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>2389</v>
       </c>
@@ -36347,11 +36347,11 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -36374,11 +36374,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -36401,11 +36401,11 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>3086</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -36428,7 +36428,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -36457,7 +36457,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -36480,7 +36480,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -36503,7 +36503,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -36526,7 +36526,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -36551,7 +36551,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -36576,7 +36576,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -36601,7 +36601,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -36626,7 +36626,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -36651,7 +36651,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -36676,7 +36676,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -36701,7 +36701,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -36724,7 +36724,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -36747,7 +36747,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -36770,7 +36770,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -36793,7 +36793,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -36816,7 +36816,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -36839,7 +36839,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -36862,7 +36862,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -36885,7 +36885,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -36908,7 +36908,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -36931,7 +36931,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -36954,7 +36954,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -36977,7 +36977,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="16.5">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -37000,7 +37000,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -37023,7 +37023,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -37046,7 +37046,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
@@ -37069,7 +37069,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="16.5">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -37092,7 +37092,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -37115,7 +37115,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -37138,7 +37138,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -37161,7 +37161,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -37184,7 +37184,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -37207,7 +37207,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -37230,7 +37230,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -37253,7 +37253,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="16.5">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -37276,7 +37276,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="16.5">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -37299,7 +37299,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="16.5">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -37322,7 +37322,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="16.5">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -37347,7 +37347,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="16.5">
       <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
@@ -37370,7 +37370,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16.5">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -37393,7 +37393,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="16.5">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -37416,7 +37416,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="16.5">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -37439,7 +37439,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16.5">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -37462,7 +37462,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="16.5">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -37485,7 +37485,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="16.5">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -37510,7 +37510,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16.5">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -37535,7 +37535,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="16.5">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -37560,7 +37560,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="16.5">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -37583,7 +37583,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="16.5">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -37606,7 +37606,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="16.5">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -37629,7 +37629,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="16.5">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -37652,7 +37652,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="16.5">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -37675,7 +37675,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.5">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -37698,7 +37698,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="16.5">
       <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
@@ -37721,7 +37721,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5">
       <c r="A60" s="2" t="s">
         <v>100</v>
       </c>
@@ -37744,7 +37744,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16.5">
       <c r="A61" s="2" t="s">
         <v>100</v>
       </c>
@@ -37767,7 +37767,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="16.5">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -37790,7 +37790,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="16.5">
       <c r="A63" s="2" t="s">
         <v>100</v>
       </c>
@@ -37813,7 +37813,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="16.5">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -37836,7 +37836,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="16.5">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -37859,7 +37859,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="16.5">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
@@ -37882,7 +37882,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="16.5">
       <c r="A67" s="2" t="s">
         <v>160</v>
       </c>
@@ -37905,7 +37905,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="16.5">
       <c r="A68" s="2" t="s">
         <v>160</v>
       </c>
@@ -37928,7 +37928,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16.5">
       <c r="A69" s="2" t="s">
         <v>160</v>
       </c>
@@ -37951,7 +37951,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="16.5">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -37974,7 +37974,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="16.5">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -37997,7 +37997,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16.5">
       <c r="A72" s="2" t="s">
         <v>208</v>
       </c>
@@ -38020,7 +38020,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="16.5">
       <c r="A73" s="2" t="s">
         <v>208</v>
       </c>
@@ -38043,7 +38043,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="16.5">
       <c r="A74" s="2" t="s">
         <v>208</v>
       </c>
@@ -38066,7 +38066,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16.5">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -38091,7 +38091,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="16.5">
       <c r="A76" s="2" t="s">
         <v>25</v>
       </c>
@@ -38114,7 +38114,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
@@ -38137,7 +38137,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="16.5">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -38160,7 +38160,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="16.5">
       <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
@@ -38185,7 +38185,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="16.5">
       <c r="A80" s="2" t="s">
         <v>25</v>
       </c>
@@ -38208,7 +38208,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="16.5">
       <c r="A81" s="2" t="s">
         <v>25</v>
       </c>
@@ -38233,7 +38233,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="16.5">
       <c r="A82" s="2" t="s">
         <v>218</v>
       </c>
@@ -38258,7 +38258,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="16.5">
       <c r="A83" s="2" t="s">
         <v>218</v>
       </c>
@@ -38281,7 +38281,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="16.5">
       <c r="A84" s="2" t="s">
         <v>218</v>
       </c>
@@ -38304,7 +38304,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="16.5">
       <c r="A85" s="2" t="s">
         <v>202</v>
       </c>
@@ -38329,7 +38329,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="16.5">
       <c r="A86" s="2" t="s">
         <v>202</v>
       </c>
@@ -38352,7 +38352,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="16.5">
       <c r="A87" s="2" t="s">
         <v>202</v>
       </c>
@@ -38375,7 +38375,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="16.5">
       <c r="A88" s="2" t="s">
         <v>202</v>
       </c>
@@ -38398,7 +38398,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="16.5">
       <c r="A89" s="2" t="s">
         <v>202</v>
       </c>
@@ -38421,7 +38421,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="16.5">
       <c r="A90" s="2" t="s">
         <v>169</v>
       </c>
@@ -38444,7 +38444,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="16.5">
       <c r="A91" s="2" t="s">
         <v>169</v>
       </c>
@@ -38467,7 +38467,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="16.5">
       <c r="A92" s="2" t="s">
         <v>169</v>
       </c>
@@ -38490,7 +38490,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="16.5">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -38513,7 +38513,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="16.5">
       <c r="A94" s="2" t="s">
         <v>119</v>
       </c>
@@ -38538,7 +38538,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="16.5">
       <c r="A95" s="2" t="s">
         <v>119</v>
       </c>
@@ -38561,7 +38561,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="16.5">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -38584,7 +38584,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="16.5">
       <c r="A97" s="2" t="s">
         <v>119</v>
       </c>
@@ -38609,7 +38609,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="16.5">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -38632,7 +38632,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="16.5">
       <c r="A99" s="2" t="s">
         <v>119</v>
       </c>
@@ -38655,7 +38655,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="16.5">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -38678,7 +38678,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="16.5">
       <c r="A101" s="2" t="s">
         <v>119</v>
       </c>
@@ -38703,7 +38703,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="16.5">
       <c r="A102" s="2" t="s">
         <v>119</v>
       </c>
@@ -38726,7 +38726,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="16.5">
       <c r="A103" s="2" t="s">
         <v>119</v>
       </c>
@@ -38749,7 +38749,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="16.5">
       <c r="A104" s="2" t="s">
         <v>119</v>
       </c>
@@ -38772,7 +38772,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="16.5">
       <c r="A105" s="2" t="s">
         <v>119</v>
       </c>
@@ -38795,7 +38795,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="16.5">
       <c r="A106" s="2" t="s">
         <v>119</v>
       </c>
@@ -38818,7 +38818,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="16.5">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -38843,7 +38843,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="16.5">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -38866,7 +38866,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="16.5">
       <c r="A109" s="2" t="s">
         <v>40</v>
       </c>
@@ -38891,7 +38891,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="16.5">
       <c r="A110" s="2" t="s">
         <v>40</v>
       </c>
@@ -38916,7 +38916,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="16.5">
       <c r="A111" s="2" t="s">
         <v>40</v>
       </c>
@@ -38941,7 +38941,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16.5">
       <c r="A112" s="2" t="s">
         <v>40</v>
       </c>
@@ -38964,7 +38964,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="16.5">
       <c r="A113" s="2" t="s">
         <v>40</v>
       </c>
@@ -38989,7 +38989,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16.5">
       <c r="A114" s="2" t="s">
         <v>40</v>
       </c>
@@ -39014,7 +39014,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="16.5">
       <c r="A115" s="2" t="s">
         <v>40</v>
       </c>
@@ -39037,7 +39037,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="16.5">
       <c r="A116" s="2" t="s">
         <v>40</v>
       </c>
@@ -39060,7 +39060,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="16.5">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
@@ -39087,7 +39087,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="16.5">
       <c r="A118" s="2" t="s">
         <v>277</v>
       </c>
@@ -39112,7 +39112,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="16.5">
       <c r="A119" s="2" t="s">
         <v>223</v>
       </c>
@@ -39137,7 +39137,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="16.5">
       <c r="A120" s="2" t="s">
         <v>8</v>
       </c>
@@ -39160,7 +39160,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="16.5">
       <c r="A121" s="2" t="s">
         <v>8</v>
       </c>
@@ -39183,7 +39183,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="16.5">
       <c r="A122" s="2" t="s">
         <v>55</v>
       </c>
@@ -39206,7 +39206,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="16.5">
       <c r="A123" s="2" t="s">
         <v>55</v>
       </c>
@@ -39231,7 +39231,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="16.5">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -39254,7 +39254,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="16.5">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -39277,7 +39277,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="16.5">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -39300,7 +39300,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="16.5">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -39323,7 +39323,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="16.5">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -39346,7 +39346,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="16.5">
       <c r="A129" s="2" t="s">
         <v>153</v>
       </c>
@@ -39385,7 +39385,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="16.5">
       <c r="A130" s="2" t="s">
         <v>153</v>
       </c>
@@ -39426,7 +39426,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="16.5">
       <c r="A131" s="2" t="s">
         <v>153</v>
       </c>
@@ -39467,7 +39467,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="16.5">
       <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
@@ -39506,7 +39506,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="16.5">
       <c r="A133" s="2" t="s">
         <v>38</v>
       </c>
@@ -39531,7 +39531,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="16.5">
       <c r="A134" s="2" t="s">
         <v>38</v>
       </c>
@@ -39556,7 +39556,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="16.5">
       <c r="A135" s="2" t="s">
         <v>38</v>
       </c>
@@ -39581,7 +39581,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="16.5">
       <c r="A136" s="2" t="s">
         <v>38</v>
       </c>
@@ -39606,7 +39606,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="16.5">
       <c r="A137" s="2" t="s">
         <v>38</v>
       </c>
@@ -39629,7 +39629,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="16.5">
       <c r="A138" s="2" t="s">
         <v>110</v>
       </c>
@@ -39654,7 +39654,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="16.5">
       <c r="A139" s="2" t="s">
         <v>172</v>
       </c>
@@ -39679,7 +39679,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="16.5">
       <c r="A140" s="2" t="s">
         <v>189</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="16.5">
       <c r="A141" s="2" t="s">
         <v>189</v>
       </c>
@@ -39735,7 +39735,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="16.5">
       <c r="A142" s="2" t="s">
         <v>189</v>
       </c>
@@ -39762,7 +39762,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="16.5">
       <c r="A143" s="2" t="s">
         <v>189</v>
       </c>
@@ -39789,7 +39789,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="16.5">
       <c r="A144" s="2" t="s">
         <v>189</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="16.5">
       <c r="A145" s="2" t="s">
         <v>189</v>
       </c>
@@ -39843,7 +39843,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="16.5">
       <c r="A146" s="2" t="s">
         <v>189</v>
       </c>
@@ -39870,7 +39870,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="16.5">
       <c r="A147" s="2" t="s">
         <v>189</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="16.5">
       <c r="A148" s="2" t="s">
         <v>189</v>
       </c>
@@ -39926,7 +39926,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="16.5">
       <c r="A149" s="2" t="s">
         <v>189</v>
       </c>
@@ -39953,7 +39953,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="16.5">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
@@ -39980,7 +39980,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="16.5">
       <c r="A151" s="2" t="s">
         <v>189</v>
       </c>
@@ -40007,7 +40007,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="16.5">
       <c r="A152" s="2" t="s">
         <v>189</v>
       </c>
@@ -40034,7 +40034,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="16.5">
       <c r="A153" s="2" t="s">
         <v>189</v>
       </c>
@@ -40059,7 +40059,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16.5">
       <c r="A154" s="2" t="s">
         <v>136</v>
       </c>
@@ -40084,7 +40084,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="16.5">
       <c r="A155" s="2" t="s">
         <v>136</v>
       </c>
@@ -40107,7 +40107,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="16.5">
       <c r="A156" s="2" t="s">
         <v>136</v>
       </c>
@@ -40130,7 +40130,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16.5">
       <c r="A157" s="2" t="s">
         <v>45</v>
       </c>
@@ -40155,7 +40155,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="16.5">
       <c r="A158" s="2" t="s">
         <v>45</v>
       </c>
@@ -40180,7 +40180,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="16.5">
       <c r="A159" s="2" t="s">
         <v>45</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="16.5">
       <c r="A160" s="2" t="s">
         <v>50</v>
       </c>
@@ -40230,7 +40230,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="16.5">
       <c r="A161" s="2" t="s">
         <v>50</v>
       </c>
@@ -40255,7 +40255,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="16.5">
       <c r="A162" s="2" t="s">
         <v>96</v>
       </c>
@@ -40280,7 +40280,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="16.5">
       <c r="A163" s="2" t="s">
         <v>79</v>
       </c>
@@ -40305,7 +40305,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5">
       <c r="A164" s="2" t="s">
         <v>79</v>
       </c>
@@ -40330,7 +40330,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5">
       <c r="A165" s="2" t="s">
         <v>79</v>
       </c>
@@ -40355,7 +40355,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="16.5">
       <c r="A166" s="2" t="s">
         <v>103</v>
       </c>
@@ -40380,7 +40380,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="16.5">
       <c r="A167" s="2" t="s">
         <v>2</v>
       </c>
@@ -40405,7 +40405,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="16.5">
       <c r="A168" s="2" t="s">
         <v>220</v>
       </c>
@@ -40430,7 +40430,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="16.5">
       <c r="A169" s="2" t="s">
         <v>186</v>
       </c>
@@ -40455,7 +40455,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="16.5">
       <c r="A170" s="2" t="s">
         <v>186</v>
       </c>
@@ -40480,7 +40480,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="16.5">
       <c r="A171" s="2" t="s">
         <v>211</v>
       </c>
@@ -40505,7 +40505,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="16.5">
       <c r="A172" s="2" t="s">
         <v>157</v>
       </c>
@@ -40544,13 +40544,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2801</v>
       </c>
@@ -40567,7 +40567,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2804</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2808</v>
       </c>
@@ -40601,7 +40601,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1065</v>
       </c>
@@ -40618,7 +40618,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2814</v>
       </c>
@@ -40635,7 +40635,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2818</v>
       </c>
@@ -40652,7 +40652,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>2821</v>
       </c>
@@ -40669,7 +40669,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>0.34</v>
       </c>
@@ -40686,7 +40686,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>2826</v>
       </c>
@@ -40703,7 +40703,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>2830</v>
       </c>
@@ -40720,7 +40720,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>0.61</v>
       </c>
@@ -40737,7 +40737,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>0.76</v>
       </c>
@@ -40754,7 +40754,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>2840</v>
       </c>
@@ -40771,7 +40771,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>2844</v>
       </c>
@@ -40788,7 +40788,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>2847</v>
       </c>
@@ -40805,7 +40805,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>2850</v>
       </c>
@@ -40822,7 +40822,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1.1399999999999999</v>
       </c>
@@ -40839,7 +40839,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1.1599999999999999</v>
       </c>
@@ -40856,7 +40856,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>2858</v>
       </c>
@@ -40873,7 +40873,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>2861</v>
       </c>
@@ -40890,7 +40890,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1.39</v>
       </c>
@@ -40907,7 +40907,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1.5</v>
       </c>
@@ -40924,7 +40924,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1.62</v>
       </c>
@@ -40941,7 +40941,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>2872</v>
       </c>
@@ -40958,7 +40958,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1.64</v>
       </c>
@@ -40975,7 +40975,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1.64</v>
       </c>
@@ -40992,7 +40992,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1.65</v>
       </c>
@@ -41009,7 +41009,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1.69</v>
       </c>
@@ -41026,7 +41026,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>2886</v>
       </c>
@@ -41043,7 +41043,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>2889</v>
       </c>
@@ -41060,7 +41060,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1.74</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1.77</v>
       </c>
@@ -41094,7 +41094,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1.77</v>
       </c>
@@ -41111,7 +41111,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1.79</v>
       </c>
@@ -41128,7 +41128,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>1.8</v>
       </c>
@@ -41145,7 +41145,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1.82</v>
       </c>
@@ -41162,7 +41162,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>1.84</v>
       </c>
@@ -41179,7 +41179,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1.85</v>
       </c>
@@ -41196,7 +41196,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>1.86</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1.86</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>2918</v>
       </c>
@@ -41247,7 +41247,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1.91</v>
       </c>
@@ -41264,7 +41264,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1.92</v>
       </c>
@@ -41281,7 +41281,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>1.94</v>
       </c>
@@ -41298,7 +41298,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>2928</v>
       </c>
@@ -41315,7 +41315,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>1.98</v>
       </c>
@@ -41332,7 +41332,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -41349,7 +41349,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>2936</v>
       </c>
@@ -41366,7 +41366,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -41383,7 +41383,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>2940</v>
       </c>
@@ -41400,7 +41400,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>2.02</v>
       </c>
@@ -41417,7 +41417,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2.0499999999999998</v>
       </c>
@@ -41434,7 +41434,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>2.06</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>2950</v>
       </c>
@@ -41468,7 +41468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>2.06</v>
       </c>
@@ -41485,7 +41485,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2.0699999999999998</v>
       </c>
@@ -41502,7 +41502,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2.08</v>
       </c>
@@ -41519,7 +41519,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>2.09</v>
       </c>
@@ -41536,7 +41536,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>2.11</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>2961</v>
       </c>
@@ -41570,7 +41570,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>2965</v>
       </c>
@@ -41587,7 +41587,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>2.17</v>
       </c>
@@ -41604,7 +41604,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>2.21</v>
       </c>
@@ -41621,7 +41621,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>2974</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>2978</v>
       </c>
@@ -41655,7 +41655,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>2982</v>
       </c>
@@ -41672,7 +41672,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>2.23</v>
       </c>
@@ -41689,7 +41689,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>2.23</v>
       </c>
@@ -41706,7 +41706,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>2.2400000000000002</v>
       </c>
@@ -41723,7 +41723,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>2.25</v>
       </c>
@@ -41740,7 +41740,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>2.2599999999999998</v>
       </c>
@@ -41757,7 +41757,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>2.27</v>
       </c>
@@ -41774,7 +41774,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>2996</v>
       </c>
@@ -41791,7 +41791,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>2.29</v>
       </c>
@@ -41808,7 +41808,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>3000</v>
       </c>
@@ -41825,7 +41825,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>3004</v>
       </c>
@@ -41842,7 +41842,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>3007</v>
       </c>
@@ -41859,7 +41859,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -41876,7 +41876,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>3013</v>
       </c>
@@ -41893,7 +41893,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -41910,7 +41910,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>2.38</v>
       </c>
@@ -41927,7 +41927,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>2.39</v>
       </c>
@@ -41944,7 +41944,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>3024</v>
       </c>
@@ -41961,7 +41961,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>3028</v>
       </c>
@@ -41978,7 +41978,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>2.4300000000000002</v>
       </c>
@@ -41995,7 +41995,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>2.44</v>
       </c>
@@ -42012,7 +42012,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>2.4500000000000002</v>
       </c>
@@ -42029,7 +42029,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>2.46</v>
       </c>
@@ -42046,7 +42046,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>3040</v>
       </c>
@@ -42063,7 +42063,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>2.48</v>
       </c>
@@ -42080,7 +42080,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>2.48</v>
       </c>
@@ -42097,7 +42097,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>2.5</v>
       </c>
@@ -42128,20 +42128,20 @@
       <selection pane="bottomLeft" activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.140625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="2"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="12.54296875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="10.1796875" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="2"/>
+    <col min="12" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>346</v>
       </c>
@@ -42170,7 +42170,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>359</v>
       </c>
@@ -42199,7 +42199,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>361</v>
       </c>
@@ -42228,7 +42228,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>388</v>
       </c>
@@ -42257,7 +42257,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>365</v>
       </c>
@@ -42286,7 +42286,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>393</v>
       </c>
@@ -42309,7 +42309,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>369</v>
       </c>
@@ -42338,7 +42338,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>397</v>
       </c>
@@ -42367,7 +42367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>401</v>
       </c>
@@ -42396,7 +42396,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>366</v>
       </c>
@@ -42425,7 +42425,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>406</v>
       </c>
@@ -42454,7 +42454,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>409</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>411</v>
       </c>
@@ -42512,7 +42512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>414</v>
       </c>
@@ -42541,7 +42541,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>417</v>
       </c>
@@ -42570,7 +42570,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>368</v>
       </c>
@@ -42599,7 +42599,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>423</v>
       </c>
@@ -42626,7 +42626,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>425</v>
       </c>
@@ -42655,7 +42655,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>428</v>
       </c>
@@ -42684,7 +42684,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>431</v>
       </c>
@@ -42713,7 +42713,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>434</v>
       </c>
@@ -42740,7 +42740,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>435</v>
       </c>
@@ -42769,7 +42769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>437</v>
       </c>
@@ -42796,7 +42796,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>438</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>441</v>
       </c>
@@ -42852,7 +42852,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>442</v>
       </c>
@@ -42881,7 +42881,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>444</v>
       </c>
@@ -42908,7 +42908,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>445</v>
       </c>
@@ -42931,7 +42931,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>447</v>
       </c>
@@ -42960,7 +42960,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>367</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>450</v>
       </c>
@@ -43018,7 +43018,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>453</v>
       </c>
@@ -43047,7 +43047,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>454</v>
       </c>
@@ -43076,7 +43076,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>456</v>
       </c>
@@ -43103,7 +43103,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
         <v>458</v>
       </c>
@@ -43130,7 +43130,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
         <v>459</v>
       </c>
@@ -43157,7 +43157,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>460</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>462</v>
       </c>
@@ -43215,7 +43215,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>465</v>
       </c>
@@ -43242,7 +43242,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
         <v>2421</v>
@@ -43269,7 +43269,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>467</v>
       </c>
@@ -43296,7 +43296,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>469</v>
       </c>
@@ -43325,7 +43325,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>373</v>
       </c>
@@ -43354,7 +43354,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
         <v>472</v>
       </c>
@@ -43381,7 +43381,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
         <v>473</v>
       </c>
@@ -43408,7 +43408,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>474</v>
       </c>
@@ -43437,7 +43437,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>476</v>
       </c>
@@ -43466,7 +43466,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
         <v>477</v>
       </c>
@@ -43493,7 +43493,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
         <v>478</v>
       </c>
@@ -43520,7 +43520,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>479</v>
       </c>
@@ -43549,7 +43549,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
         <v>481</v>
       </c>
@@ -43576,7 +43576,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>3421</v>
@@ -43601,7 +43601,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
         <v>483</v>
       </c>
@@ -43630,7 +43630,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
         <v>484</v>
       </c>
@@ -43659,7 +43659,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>486</v>
       </c>
@@ -43688,7 +43688,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
         <v>488</v>
       </c>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
         <v>10204</v>
@@ -43740,7 +43740,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>489</v>
       </c>
@@ -43767,7 +43767,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>490</v>
       </c>
@@ -43794,7 +43794,7 @@
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>491</v>
       </c>
@@ -43823,7 +43823,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>493</v>
       </c>
@@ -43852,7 +43852,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>494</v>
       </c>
@@ -43879,7 +43879,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>16028</v>
@@ -43906,7 +43906,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>496</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>498</v>
       </c>
@@ -43964,7 +43964,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>1632</v>
@@ -43989,7 +43989,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
         <v>500</v>
       </c>
@@ -44018,7 +44018,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4">
         <v>14622</v>
@@ -44045,7 +44045,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>503</v>
       </c>
@@ -44072,7 +44072,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>505</v>
       </c>
@@ -44101,7 +44101,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>507</v>
       </c>
@@ -44130,7 +44130,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>508</v>
       </c>
@@ -44159,7 +44159,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4"/>
       <c r="B73" s="4">
         <v>1439</v>
@@ -44184,7 +44184,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>511</v>
       </c>
@@ -44213,7 +44213,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>513</v>
       </c>
@@ -44242,7 +44242,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>11727</v>
@@ -44269,7 +44269,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>517</v>
       </c>
@@ -44298,7 +44298,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4">
         <v>16176</v>
@@ -44323,7 +44323,7 @@
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>519</v>
       </c>
@@ -44350,7 +44350,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="4"/>
       <c r="B80" s="4">
         <v>10975</v>
@@ -44375,7 +44375,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>520</v>
       </c>
@@ -44404,7 +44404,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>8671</v>
@@ -44429,7 +44429,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="4" t="s">
         <v>521</v>
       </c>
@@ -44458,7 +44458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
         <v>523</v>
       </c>
@@ -44487,7 +44487,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="4"/>
       <c r="B85" s="4">
         <v>224165</v>
@@ -44512,7 +44512,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
         <v>224342</v>
@@ -44537,7 +44537,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
         <v>4335</v>
@@ -44562,7 +44562,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
         <v>13594</v>
@@ -44587,7 +44587,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>527</v>
       </c>
@@ -44616,7 +44616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="4" t="s">
         <v>528</v>
       </c>
@@ -44645,7 +44645,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="4"/>
       <c r="B91" s="4">
         <v>5118</v>
@@ -44670,7 +44670,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="4"/>
       <c r="B92" s="4">
         <v>221293</v>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="4" t="s">
         <v>531</v>
       </c>
@@ -44724,7 +44724,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
         <v>225239</v>
@@ -44749,7 +44749,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="4" t="s">
         <v>533</v>
       </c>
@@ -44778,7 +44778,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
         <v>534</v>
       </c>
@@ -44807,7 +44807,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="4"/>
       <c r="B97" s="4">
         <v>5526</v>
@@ -44832,7 +44832,7 @@
       </c>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="4" t="s">
         <v>537</v>
       </c>
@@ -44861,7 +44861,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4">
         <v>7647</v>
@@ -44886,7 +44886,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="4" t="s">
         <v>540</v>
       </c>
@@ -44915,7 +44915,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="4"/>
       <c r="B101" s="4">
         <v>218416</v>
@@ -44940,7 +44940,7 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>541</v>
       </c>
@@ -44969,7 +44969,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4">
         <v>7158</v>
@@ -44994,7 +44994,7 @@
       </c>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
         <v>545</v>
       </c>
@@ -45023,7 +45023,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4">
         <v>14372</v>
@@ -45048,7 +45048,7 @@
       </c>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4">
         <v>743</v>
@@ -45073,7 +45073,7 @@
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="4"/>
       <c r="B107" s="4">
         <v>3411</v>
@@ -45098,7 +45098,7 @@
       </c>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
         <v>547</v>
       </c>
@@ -45127,7 +45127,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4">
         <v>16327</v>
@@ -45154,7 +45154,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
         <v>549</v>
       </c>
@@ -45183,7 +45183,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
         <v>552</v>
       </c>
@@ -45212,7 +45212,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="4"/>
       <c r="B112" s="4">
         <v>400</v>
@@ -45237,7 +45237,7 @@
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4">
         <v>14213</v>
@@ -45262,7 +45262,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="4"/>
       <c r="B114" s="4">
         <v>952</v>
@@ -45287,7 +45287,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="4" t="s">
         <v>554</v>
       </c>
@@ -45316,7 +45316,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="4"/>
       <c r="B116" s="4">
         <v>222451</v>
@@ -45341,7 +45341,7 @@
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="4"/>
       <c r="B117" s="4">
         <v>224906</v>
@@ -45366,7 +45366,7 @@
       </c>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="4"/>
       <c r="B118" s="4">
         <v>11613</v>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
         <v>556</v>
       </c>
@@ -45420,7 +45420,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="4"/>
       <c r="B120" s="4">
         <v>221661</v>
@@ -45445,7 +45445,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
         <v>557</v>
       </c>
@@ -45474,7 +45474,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="4"/>
       <c r="B122" s="4">
         <v>8774</v>
@@ -45499,7 +45499,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="4"/>
       <c r="B123" s="4">
         <v>2507</v>
@@ -45524,7 +45524,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="4"/>
       <c r="B124" s="4">
         <v>8375</v>
@@ -45549,7 +45549,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="4"/>
       <c r="B125" s="4">
         <v>11624</v>
@@ -45576,7 +45576,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="4"/>
       <c r="B126" s="4">
         <v>7758</v>
@@ -45601,7 +45601,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="4"/>
       <c r="B127" s="4">
         <v>16350</v>
@@ -45626,7 +45626,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="4"/>
       <c r="B128" s="4">
         <v>219962</v>
@@ -45651,7 +45651,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="4"/>
       <c r="B129" s="4">
         <v>217314</v>
@@ -45676,7 +45676,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="4"/>
       <c r="B130" s="4">
         <v>10597</v>
@@ -45701,7 +45701,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="4"/>
       <c r="B131" s="4">
         <v>219290</v>
@@ -45726,7 +45726,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="4"/>
       <c r="B132" s="4">
         <v>10486</v>
@@ -45751,7 +45751,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="4"/>
       <c r="B133" s="4">
         <v>10874</v>
@@ -45776,7 +45776,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="4"/>
       <c r="B134" s="4">
         <v>1075</v>
@@ -45801,7 +45801,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" s="4" t="s">
         <v>563</v>
       </c>
@@ -45830,7 +45830,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="4"/>
       <c r="B136" s="4">
         <v>1083</v>
@@ -45857,7 +45857,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="4"/>
       <c r="B137" s="4">
         <v>1527</v>
@@ -45882,7 +45882,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="4"/>
       <c r="B138" s="4">
         <v>221970</v>
@@ -45907,7 +45907,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="4" t="s">
         <v>565</v>
       </c>
@@ -45936,7 +45936,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="4"/>
       <c r="B140" s="4">
         <v>16004</v>
@@ -45963,7 +45963,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="4"/>
       <c r="B141" s="4">
         <v>13818</v>
@@ -45988,7 +45988,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="4" t="s">
         <v>567</v>
       </c>
@@ -46017,7 +46017,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="4" t="s">
         <v>570</v>
       </c>
@@ -46046,7 +46046,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
         <v>573</v>
       </c>
@@ -46075,7 +46075,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="4"/>
       <c r="B145" s="4">
         <v>13013</v>
@@ -46100,7 +46100,7 @@
       </c>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="4"/>
       <c r="B146" s="4">
         <v>218365</v>
@@ -46125,7 +46125,7 @@
       </c>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="4"/>
       <c r="B147" s="4">
         <v>9712</v>
@@ -46150,7 +46150,7 @@
       </c>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="4" t="s">
         <v>576</v>
       </c>
@@ -46179,7 +46179,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>217731</v>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="4" t="s">
         <v>578</v>
       </c>
@@ -46233,7 +46233,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="4"/>
       <c r="B151" s="4">
         <v>7853</v>
@@ -46260,7 +46260,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="4"/>
       <c r="B152" s="4">
         <v>14221</v>
@@ -46285,7 +46285,7 @@
       </c>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="4"/>
       <c r="B153" s="4">
         <v>219668</v>
@@ -46310,7 +46310,7 @@
       </c>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="4" t="s">
         <v>580</v>
       </c>
@@ -46339,7 +46339,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="4"/>
       <c r="B155" s="4">
         <v>11884</v>
@@ -46364,7 +46364,7 @@
       </c>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="4" t="s">
         <v>582</v>
       </c>
@@ -46393,7 +46393,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="4" t="s">
         <v>584</v>
       </c>
@@ -46422,7 +46422,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="4" t="s">
         <v>585</v>
       </c>
@@ -46449,7 +46449,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="4"/>
       <c r="B159" s="4">
         <v>800</v>
@@ -46474,7 +46474,7 @@
       </c>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="4" t="s">
         <v>587</v>
       </c>
@@ -46503,7 +46503,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="4" t="s">
         <v>590</v>
       </c>
@@ -46530,7 +46530,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="4" t="s">
         <v>592</v>
       </c>
@@ -46559,7 +46559,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="4" t="s">
         <v>370</v>
       </c>
@@ -46584,7 +46584,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="4" t="s">
         <v>594</v>
       </c>
@@ -46611,7 +46611,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="4" t="s">
         <v>596</v>
       </c>
@@ -46638,7 +46638,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="4" t="s">
         <v>597</v>
       </c>
@@ -46661,7 +46661,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="4" t="s">
         <v>599</v>
       </c>
@@ -46690,7 +46690,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="4" t="s">
         <v>601</v>
       </c>
@@ -46719,7 +46719,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="4" t="s">
         <v>371</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="4" t="s">
         <v>604</v>
       </c>
@@ -46773,7 +46773,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="4" t="s">
         <v>605</v>
       </c>
@@ -46798,7 +46798,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="4" t="s">
         <v>606</v>
       </c>
@@ -46821,7 +46821,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="4" t="s">
         <v>607</v>
       </c>
@@ -46846,7 +46846,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="4" t="s">
         <v>608</v>
       </c>
@@ -46869,7 +46869,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" s="4" t="s">
         <v>372</v>
       </c>
@@ -46894,7 +46894,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="4" t="s">
         <v>610</v>
       </c>
@@ -46917,7 +46917,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="4" t="s">
         <v>611</v>
       </c>
@@ -46940,7 +46940,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="4" t="s">
         <v>612</v>
       </c>
@@ -46975,16 +46975,16 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>346</v>
       </c>
@@ -47013,7 +47013,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>968</v>
       </c>
@@ -47042,7 +47042,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>971</v>
       </c>
@@ -47071,7 +47071,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>973</v>
       </c>
@@ -47100,7 +47100,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>975</v>
       </c>
@@ -47129,7 +47129,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>977</v>
       </c>
@@ -47156,7 +47156,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>979</v>
       </c>
@@ -47183,7 +47183,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>980</v>
       </c>
@@ -47208,7 +47208,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>982</v>
       </c>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>984</v>
       </c>
@@ -47262,7 +47262,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>986</v>
       </c>
@@ -47291,7 +47291,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>987</v>
       </c>
@@ -47320,7 +47320,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>990</v>
       </c>
@@ -47347,7 +47347,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>991</v>
       </c>
@@ -47376,7 +47376,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>992</v>
       </c>
@@ -47405,7 +47405,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>993</v>
       </c>
@@ -47432,7 +47432,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>994</v>
       </c>
@@ -47461,7 +47461,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>996</v>
       </c>
@@ -47486,7 +47486,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>998</v>
       </c>
@@ -47513,7 +47513,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>999</v>
       </c>
@@ -47542,7 +47542,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>1002</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>1005</v>
       </c>
@@ -47598,7 +47598,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>1006</v>
       </c>
@@ -47625,7 +47625,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>1007</v>
       </c>
@@ -47654,7 +47654,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>1008</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>1012</v>
       </c>
@@ -47710,7 +47710,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>1014</v>
       </c>
@@ -47737,7 +47737,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>1015</v>
       </c>
@@ -47764,7 +47764,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>1017</v>
       </c>
@@ -47791,7 +47791,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>1019</v>
       </c>
@@ -47818,7 +47818,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>1020</v>
       </c>
@@ -47845,7 +47845,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>1021</v>
       </c>
@@ -47874,7 +47874,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>1023</v>
       </c>
@@ -47901,7 +47901,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>1025</v>
       </c>
@@ -47928,7 +47928,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
         <v>1026</v>
       </c>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
         <v>1027</v>
       </c>
@@ -47982,7 +47982,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>1028</v>
       </c>
@@ -48011,7 +48011,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>1030</v>
       </c>
@@ -48040,7 +48040,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>1033</v>
       </c>
@@ -48067,7 +48067,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>1034</v>
       </c>
@@ -48094,7 +48094,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>1035</v>
       </c>
@@ -48123,7 +48123,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>1037</v>
       </c>
@@ -48152,7 +48152,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>1039</v>
       </c>
@@ -48179,7 +48179,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
         <v>1041</v>
       </c>
@@ -48208,7 +48208,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
         <v>1043</v>
       </c>
@@ -48235,7 +48235,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>1044</v>
       </c>
@@ -48264,7 +48264,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>1045</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
         <v>1047</v>
       </c>
@@ -48320,7 +48320,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
         <v>1048</v>
       </c>
@@ -48347,7 +48347,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>1049</v>
       </c>
@@ -48374,7 +48374,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
         <v>1050</v>
       </c>
@@ -48401,7 +48401,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>1051</v>
       </c>
@@ -48430,7 +48430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
         <v>1053</v>
       </c>
@@ -48453,7 +48453,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
         <v>1055</v>
       </c>
@@ -48482,7 +48482,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>1057</v>
       </c>
@@ -48509,7 +48509,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
         <v>1058</v>
       </c>
@@ -48538,7 +48538,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>1060</v>
       </c>
@@ -48565,7 +48565,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>1061</v>
       </c>
@@ -48592,7 +48592,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>1062</v>
       </c>
@@ -48621,7 +48621,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>1064</v>
       </c>
@@ -48648,7 +48648,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>1066</v>
       </c>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>1067</v>
       </c>
@@ -48702,7 +48702,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>1069</v>
       </c>
@@ -48729,7 +48729,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>1071</v>
       </c>
@@ -48756,7 +48756,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>1072</v>
       </c>
@@ -48783,7 +48783,7 @@
       </c>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>1073</v>
       </c>
@@ -48810,7 +48810,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
         <v>1074</v>
       </c>
@@ -48837,7 +48837,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>1075</v>
       </c>
@@ -48864,7 +48864,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>1076</v>
       </c>
@@ -48893,7 +48893,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>1078</v>
       </c>
@@ -48922,7 +48922,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>1079</v>
       </c>
@@ -48951,7 +48951,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>1081</v>
       </c>
@@ -48978,7 +48978,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>1082</v>
       </c>
@@ -49005,7 +49005,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>1083</v>
       </c>
@@ -49032,7 +49032,7 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>1084</v>
       </c>
@@ -49059,7 +49059,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>1086</v>
       </c>
@@ -49088,7 +49088,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>1088</v>
       </c>
@@ -49115,7 +49115,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>1089</v>
       </c>
@@ -49144,7 +49144,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>1091</v>
       </c>
@@ -49171,7 +49171,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>1092</v>
       </c>
@@ -49198,7 +49198,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>1093</v>
       </c>
@@ -49225,7 +49225,7 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
         <v>1094</v>
       </c>
@@ -49252,7 +49252,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4" t="s">
         <v>1095</v>
       </c>
@@ -49281,7 +49281,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
         <v>1097</v>
       </c>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
         <v>1098</v>
       </c>
@@ -49335,7 +49335,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
         <v>1099</v>
       </c>
@@ -49362,7 +49362,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
         <v>1100</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
         <v>1102</v>
       </c>
@@ -49420,7 +49420,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>1104</v>
       </c>
@@ -49449,7 +49449,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4" t="s">
         <v>1105</v>
       </c>
@@ -49476,7 +49476,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4" t="s">
         <v>1106</v>
       </c>
@@ -49503,7 +49503,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4" t="s">
         <v>1108</v>
       </c>
@@ -49530,7 +49530,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4" t="s">
         <v>1110</v>
       </c>
@@ -49553,7 +49553,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4" t="s">
         <v>1112</v>
       </c>
@@ -49580,7 +49580,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4" t="s">
         <v>1113</v>
       </c>
@@ -49609,7 +49609,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
         <v>1115</v>
       </c>
@@ -49636,7 +49636,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4" t="s">
         <v>1117</v>
       </c>
@@ -49665,7 +49665,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4" t="s">
         <v>1119</v>
       </c>
@@ -49692,7 +49692,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4" t="s">
         <v>1121</v>
       </c>
@@ -49719,7 +49719,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4" t="s">
         <v>1123</v>
       </c>
@@ -49746,7 +49746,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4" t="s">
         <v>1125</v>
       </c>
@@ -49767,7 +49767,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>1127</v>
       </c>
@@ -49790,7 +49790,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4" t="s">
         <v>1129</v>
       </c>
@@ -49811,7 +49811,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
         <v>1131</v>
       </c>
@@ -49832,7 +49832,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
         <v>1133</v>
       </c>
@@ -49857,7 +49857,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4" t="s">
         <v>1135</v>
       </c>
@@ -49882,7 +49882,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4" t="s">
         <v>1137</v>
       </c>
@@ -49903,7 +49903,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
         <v>1139</v>
       </c>
@@ -49924,7 +49924,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
         <v>1141</v>
       </c>
@@ -49947,7 +49947,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
         <v>1143</v>
       </c>
@@ -49968,7 +49968,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
         <v>1145</v>
       </c>
@@ -49993,7 +49993,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
         <v>1147</v>
       </c>
@@ -50012,7 +50012,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
         <v>1149</v>
       </c>
@@ -50044,13 +50044,13 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>346</v>
       </c>
@@ -50079,7 +50079,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1375</v>
       </c>
@@ -50108,7 +50108,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>1379</v>
       </c>
@@ -50137,7 +50137,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>1384</v>
       </c>
@@ -50166,7 +50166,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>1389</v>
       </c>
@@ -50195,7 +50195,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>1394</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>1399</v>
       </c>
@@ -50253,7 +50253,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>1404</v>
       </c>
@@ -50282,7 +50282,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>1409</v>
       </c>
@@ -50311,7 +50311,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>1413</v>
       </c>
@@ -50338,7 +50338,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>1417</v>
       </c>
@@ -50365,7 +50365,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>1421</v>
       </c>
@@ -50392,7 +50392,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>1424</v>
       </c>
@@ -50419,7 +50419,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>1427</v>
       </c>
@@ -50446,7 +50446,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>1430</v>
       </c>
@@ -50475,7 +50475,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>1434</v>
       </c>
@@ -50502,7 +50502,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>1438</v>
       </c>
@@ -50529,7 +50529,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>1442</v>
       </c>
@@ -50556,7 +50556,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>1446</v>
       </c>
@@ -50585,7 +50585,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>1451</v>
       </c>
@@ -50612,7 +50612,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>1454</v>
       </c>
@@ -50639,7 +50639,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>1457</v>
       </c>
@@ -50668,7 +50668,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>1461</v>
       </c>
@@ -50697,7 +50697,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>1465</v>
       </c>
@@ -50724,7 +50724,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>1468</v>
       </c>
@@ -50753,7 +50753,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>1472</v>
       </c>
@@ -50782,7 +50782,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>1476</v>
       </c>
@@ -50811,7 +50811,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>1480</v>
       </c>
@@ -50838,7 +50838,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>1484</v>
       </c>
@@ -50867,7 +50867,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>1487</v>
       </c>
@@ -50894,7 +50894,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>1491</v>
       </c>
@@ -50921,7 +50921,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>1494</v>
       </c>
@@ -50948,7 +50948,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>1497</v>
       </c>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>1501</v>
       </c>
@@ -51004,7 +51004,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
         <v>1505</v>
       </c>
@@ -51031,7 +51031,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
         <v>1509</v>
       </c>
@@ -51060,7 +51060,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>1512</v>
       </c>
@@ -51087,7 +51087,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>1516</v>
       </c>
@@ -51114,7 +51114,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>1519</v>
       </c>
@@ -51143,7 +51143,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>1523</v>
       </c>
@@ -51170,7 +51170,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>1526</v>
       </c>
@@ -51199,7 +51199,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>1531</v>
       </c>
@@ -51226,7 +51226,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>1535</v>
       </c>
@@ -51255,7 +51255,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4"/>
       <c r="B44" s="4">
         <v>34557</v>
@@ -51280,7 +51280,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
         <v>1542</v>
       </c>
@@ -51307,7 +51307,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>34904</v>
@@ -51332,7 +51332,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>1547</v>
       </c>
@@ -51361,7 +51361,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>30454</v>
@@ -51386,7 +51386,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>30557</v>
@@ -51411,7 +51411,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>1556</v>
       </c>
@@ -51438,7 +51438,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>33167</v>
@@ -51463,7 +51463,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>30823</v>
@@ -51488,7 +51488,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>35600</v>
@@ -51513,7 +51513,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
         <v>1566</v>
       </c>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>1569</v>
       </c>
@@ -51569,7 +51569,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>36678</v>
@@ -51594,7 +51594,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>1577</v>
       </c>
@@ -51623,7 +51623,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>1582</v>
       </c>
@@ -51650,7 +51650,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>1585</v>
       </c>
@@ -51679,7 +51679,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="4">
         <v>42471</v>
@@ -51704,7 +51704,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>1591</v>
       </c>
@@ -51733,7 +51733,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>1595</v>
       </c>
@@ -51760,7 +51760,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>1598</v>
       </c>
@@ -51789,7 +51789,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>1602</v>
       </c>
@@ -51816,7 +51816,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>1605</v>
       </c>
@@ -51843,7 +51843,7 @@
       </c>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>50763</v>
@@ -51868,7 +51868,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>39586</v>
@@ -51893,7 +51893,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4">
         <v>40084</v>
@@ -51918,7 +51918,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>1615</v>
       </c>
@@ -51945,7 +51945,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>35520</v>
@@ -51970,7 +51970,7 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4"/>
       <c r="B71" s="4">
         <v>35239</v>
@@ -51995,7 +51995,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>1622</v>
       </c>
@@ -52022,7 +52022,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>1625</v>
       </c>
@@ -52051,7 +52051,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4"/>
       <c r="B74" s="4">
         <v>40486</v>
@@ -52076,7 +52076,7 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>1633</v>
       </c>
@@ -52105,7 +52105,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>36040</v>
@@ -52130,7 +52130,7 @@
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>1640</v>
       </c>
@@ -52159,7 +52159,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4">
         <v>33203</v>
@@ -52184,7 +52184,7 @@
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>1648</v>
       </c>
@@ -52211,7 +52211,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>1651</v>
       </c>
@@ -52238,7 +52238,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4"/>
       <c r="B81" s="4">
         <v>50056</v>
@@ -52263,7 +52263,7 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>37519</v>
@@ -52288,7 +52288,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4"/>
       <c r="B83" s="4">
         <v>39225</v>
@@ -52313,7 +52313,7 @@
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4"/>
       <c r="B84" s="4">
         <v>40626</v>
@@ -52338,7 +52338,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4"/>
       <c r="B85" s="4">
         <v>31069</v>
@@ -52363,7 +52363,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
         <v>42466</v>
@@ -52388,7 +52388,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
         <v>36891</v>
@@ -52413,7 +52413,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
         <v>1670</v>
       </c>
@@ -52440,7 +52440,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>1673</v>
       </c>
@@ -52463,7 +52463,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4"/>
       <c r="B90" s="4">
         <v>31327</v>
@@ -52488,7 +52488,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4"/>
       <c r="B91" s="4">
         <v>36719</v>
@@ -52513,7 +52513,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4" t="s">
         <v>1681</v>
       </c>
@@ -52542,7 +52542,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4"/>
       <c r="B93" s="4">
         <v>32188</v>
@@ -52567,7 +52567,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
         <v>41330</v>
@@ -52592,7 +52592,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
         <v>32406</v>
@@ -52617,7 +52617,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4"/>
       <c r="B96" s="4">
         <v>40083</v>
@@ -52642,7 +52642,7 @@
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4" t="s">
         <v>1695</v>
       </c>
@@ -52671,7 +52671,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4"/>
       <c r="B98" s="4">
         <v>41467</v>
@@ -52696,7 +52696,7 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4">
         <v>33654</v>
@@ -52721,7 +52721,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4" t="s">
         <v>1704</v>
       </c>
@@ -52750,7 +52750,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4" t="s">
         <v>1708</v>
       </c>
@@ -52779,7 +52779,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4"/>
       <c r="B102" s="4">
         <v>35521</v>
@@ -52804,7 +52804,7 @@
       </c>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4">
         <v>40588</v>
@@ -52829,7 +52829,7 @@
       </c>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4"/>
       <c r="B104" s="4">
         <v>53925</v>
@@ -52854,7 +52854,7 @@
       </c>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4">
         <v>32655</v>
@@ -52879,7 +52879,7 @@
       </c>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4">
         <v>35984</v>
@@ -52904,7 +52904,7 @@
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4" t="s">
         <v>1723</v>
       </c>
@@ -52933,7 +52933,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4"/>
       <c r="B108" s="4">
         <v>40325</v>
@@ -52958,7 +52958,7 @@
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4">
         <v>48073</v>
@@ -52983,7 +52983,7 @@
       </c>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4"/>
       <c r="B110" s="4">
         <v>34332</v>
@@ -53008,7 +53008,7 @@
       </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
         <v>1734</v>
       </c>
@@ -53037,7 +53037,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4"/>
       <c r="B112" s="4">
         <v>40832</v>
@@ -53062,7 +53062,7 @@
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4">
         <v>41269</v>
@@ -53087,7 +53087,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4"/>
       <c r="B114" s="4">
         <v>49949</v>
@@ -53112,7 +53112,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4"/>
       <c r="B115" s="4">
         <v>36499</v>
@@ -53137,7 +53137,7 @@
       </c>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4" t="s">
         <v>1747</v>
       </c>
@@ -53166,7 +53166,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4"/>
       <c r="B117" s="4">
         <v>42083</v>
@@ -53191,7 +53191,7 @@
       </c>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4"/>
       <c r="B118" s="4">
         <v>38765</v>
@@ -53216,7 +53216,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4"/>
       <c r="B119" s="4">
         <v>35238</v>
@@ -53241,7 +53241,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4"/>
       <c r="B120" s="4">
         <v>38358</v>
@@ -53266,7 +53266,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4"/>
       <c r="B121" s="4">
         <v>50384</v>
@@ -53291,7 +53291,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4"/>
       <c r="B122" s="4">
         <v>41162</v>
@@ -53316,7 +53316,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
         <v>1764</v>
       </c>
@@ -53343,7 +53343,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
         <v>1767</v>
       </c>
@@ -53370,7 +53370,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4"/>
       <c r="B125" s="4">
         <v>56941</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4"/>
       <c r="B126" s="4">
         <v>41636</v>
@@ -53420,7 +53420,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4"/>
       <c r="B127" s="4">
         <v>39866</v>
@@ -53445,7 +53445,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4"/>
       <c r="B128" s="4">
         <v>47270</v>
@@ -53470,7 +53470,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="4"/>
       <c r="B129" s="4">
         <v>37138</v>
@@ -53495,7 +53495,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="4"/>
       <c r="B130" s="4">
         <v>48272</v>
@@ -53520,7 +53520,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="4" t="s">
         <v>1785</v>
       </c>
@@ -53547,7 +53547,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4"/>
       <c r="B132" s="4">
         <v>40722</v>
@@ -53572,7 +53572,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="4" t="s">
         <v>1790</v>
       </c>
@@ -53599,7 +53599,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="4"/>
       <c r="B134" s="4">
         <v>37646</v>
@@ -53624,7 +53624,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="4"/>
       <c r="B135" s="4">
         <v>39182</v>
@@ -53649,7 +53649,7 @@
       </c>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="4"/>
       <c r="B136" s="4">
         <v>57263</v>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="4"/>
       <c r="B137" s="4">
         <v>35681</v>
@@ -53699,7 +53699,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="4"/>
       <c r="B138" s="4">
         <v>44092</v>
@@ -53724,7 +53724,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="4" t="s">
         <v>1804</v>
       </c>
@@ -53751,7 +53751,7 @@
       </c>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
         <v>1808</v>
       </c>
@@ -53778,7 +53778,7 @@
       </c>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="4"/>
       <c r="B141" s="4">
         <v>45192</v>
@@ -53803,7 +53803,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="4"/>
       <c r="B142" s="4">
         <v>37250</v>
@@ -53828,7 +53828,7 @@
       </c>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="4" t="s">
         <v>1815</v>
       </c>
@@ -53855,7 +53855,7 @@
       </c>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
         <v>1818</v>
       </c>
@@ -53882,7 +53882,7 @@
       </c>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="4" t="s">
         <v>1822</v>
       </c>
@@ -53911,7 +53911,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="4"/>
       <c r="B146" s="4">
         <v>38229</v>
@@ -53936,7 +53936,7 @@
       </c>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="4" t="s">
         <v>1828</v>
       </c>
@@ -53963,7 +53963,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="4"/>
       <c r="B148" s="4">
         <v>33632</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>47703</v>
@@ -54013,7 +54013,7 @@
       </c>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="4"/>
       <c r="B150" s="4">
         <v>51021</v>
@@ -54038,7 +54038,7 @@
       </c>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="4"/>
       <c r="B151" s="4">
         <v>56171</v>
@@ -54063,7 +54063,7 @@
       </c>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="4"/>
       <c r="B152" s="4">
         <v>29867</v>
@@ -54088,7 +54088,7 @@
       </c>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="4"/>
       <c r="B153" s="4">
         <v>32608</v>
@@ -54113,7 +54113,7 @@
       </c>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="4" t="s">
         <v>1844</v>
       </c>
@@ -54140,7 +54140,7 @@
       </c>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="4"/>
       <c r="B155" s="4">
         <v>34498</v>
@@ -54165,7 +54165,7 @@
       </c>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="4"/>
       <c r="B156" s="4">
         <v>35202</v>
@@ -54190,7 +54190,7 @@
       </c>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="4"/>
       <c r="B157" s="4">
         <v>40650</v>
@@ -54215,7 +54215,7 @@
       </c>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="4"/>
       <c r="B158" s="4">
         <v>49364</v>
@@ -54240,7 +54240,7 @@
       </c>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="4"/>
       <c r="B159" s="4">
         <v>36484</v>
@@ -54265,7 +54265,7 @@
       </c>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="4"/>
       <c r="B160" s="4">
         <v>38200</v>
@@ -54290,7 +54290,7 @@
       </c>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="4" t="s">
         <v>1860</v>
       </c>
@@ -54317,7 +54317,7 @@
       </c>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="4" t="s">
         <v>1863</v>
       </c>
@@ -54346,7 +54346,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="4" t="s">
         <v>1866</v>
       </c>
@@ -54373,7 +54373,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="4" t="s">
         <v>1870</v>
       </c>
@@ -54394,7 +54394,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="4" t="s">
         <v>1873</v>
       </c>
@@ -54421,7 +54421,7 @@
       </c>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="4" t="s">
         <v>1876</v>
       </c>
@@ -54448,7 +54448,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="4" t="s">
         <v>1880</v>
       </c>
@@ -54475,7 +54475,7 @@
       </c>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="4" t="s">
         <v>1883</v>
       </c>
@@ -54502,7 +54502,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="4" t="s">
         <v>1887</v>
       </c>
@@ -54529,7 +54529,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="4" t="s">
         <v>1891</v>
       </c>
@@ -54558,7 +54558,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="4" t="s">
         <v>1894</v>
       </c>
@@ -54587,7 +54587,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="4" t="s">
         <v>1897</v>
       </c>
@@ -54616,7 +54616,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="4" t="s">
         <v>1900</v>
       </c>
@@ -54643,7 +54643,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="4" t="s">
         <v>1904</v>
       </c>
@@ -54670,7 +54670,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="4" t="s">
         <v>1908</v>
       </c>
@@ -54697,7 +54697,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="4" t="s">
         <v>1912</v>
       </c>
@@ -54726,7 +54726,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="4" t="s">
         <v>1918</v>
       </c>
@@ -54749,7 +54749,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="4" t="s">
         <v>1922</v>
       </c>
@@ -54772,7 +54772,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="4" t="s">
         <v>1926</v>
       </c>
@@ -54947,13 +54947,13 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>346</v>
       </c>
@@ -54982,7 +54982,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -54997,7 +54997,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>1930</v>
       </c>
@@ -55026,7 +55026,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>1934</v>
       </c>
@@ -55055,7 +55055,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>1938</v>
       </c>
@@ -55084,7 +55084,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>1934</v>
       </c>
@@ -55107,7 +55107,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>1944</v>
       </c>
@@ -55136,7 +55136,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>1949</v>
       </c>
@@ -55165,7 +55165,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>1953</v>
       </c>
@@ -55194,7 +55194,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>1957</v>
       </c>
@@ -55223,7 +55223,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>1961</v>
       </c>
@@ -55252,7 +55252,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>1964</v>
       </c>
@@ -55281,7 +55281,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>1968</v>
       </c>
@@ -55308,7 +55308,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>1971</v>
       </c>
@@ -55337,7 +55337,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>1975</v>
       </c>
@@ -55366,7 +55366,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>1961</v>
       </c>
@@ -55387,7 +55387,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>1980</v>
       </c>
@@ -55416,7 +55416,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>1984</v>
       </c>
@@ -55445,7 +55445,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>1987</v>
       </c>
@@ -55474,7 +55474,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>1990</v>
       </c>
@@ -55503,7 +55503,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>1994</v>
       </c>
@@ -55532,7 +55532,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>1998</v>
       </c>
@@ -55561,7 +55561,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>2002</v>
       </c>
@@ -55588,7 +55588,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>2005</v>
       </c>
@@ -55617,7 +55617,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>2009</v>
       </c>
@@ -55646,7 +55646,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>2012</v>
       </c>
@@ -55675,7 +55675,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>2017</v>
       </c>
@@ -55702,7 +55702,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>2020</v>
       </c>
@@ -55729,7 +55729,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>2023</v>
       </c>
@@ -55758,7 +55758,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>2027</v>
       </c>
@@ -55785,7 +55785,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>2030</v>
       </c>
@@ -55812,7 +55812,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>2033</v>
       </c>
@@ -55839,7 +55839,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>2036</v>
       </c>
@@ -55866,7 +55866,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>2040</v>
       </c>
@@ -55893,7 +55893,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
         <v>2043</v>
       </c>
@@ -55920,7 +55920,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
         <v>2046</v>
       </c>
@@ -55947,7 +55947,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
         <v>2050</v>
       </c>
@@ -55974,7 +55974,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>2054</v>
       </c>
@@ -56003,7 +56003,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>134190</v>
@@ -56028,7 +56028,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>2060</v>
       </c>
@@ -56055,7 +56055,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>2063</v>
       </c>
@@ -56084,7 +56084,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>2068</v>
       </c>
@@ -56111,7 +56111,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>2071</v>
       </c>
@@ -56138,7 +56138,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
         <v>2074</v>
       </c>
@@ -56165,7 +56165,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
         <v>2077</v>
       </c>
@@ -56192,7 +56192,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>2080</v>
       </c>
@@ -56219,7 +56219,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>2083</v>
       </c>
@@ -56246,7 +56246,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>137704</v>
@@ -56271,7 +56271,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>131111</v>
@@ -56296,7 +56296,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>2090</v>
       </c>
@@ -56325,7 +56325,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>133392</v>
@@ -56350,7 +56350,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>2096</v>
       </c>
@@ -56377,7 +56377,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
         <v>2099</v>
       </c>
@@ -56404,7 +56404,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>137071</v>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>2105</v>
       </c>
@@ -56456,7 +56456,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
         <v>2108</v>
       </c>
@@ -56483,7 +56483,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>2111</v>
       </c>
@@ -56510,7 +56510,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>2114</v>
       </c>
@@ -56537,7 +56537,7 @@
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="4">
         <v>132254</v>
@@ -56562,7 +56562,7 @@
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>2119</v>
       </c>
@@ -56589,7 +56589,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="4">
         <v>136729</v>
@@ -56614,7 +56614,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>2124</v>
       </c>
@@ -56641,7 +56641,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>2127</v>
       </c>
@@ -56668,7 +56668,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>2130</v>
       </c>
@@ -56695,7 +56695,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="4"/>
       <c r="B65" s="4">
         <v>118508</v>
@@ -56720,7 +56720,7 @@
       </c>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>129846</v>
@@ -56745,7 +56745,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>132146</v>
@@ -56770,7 +56770,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>2140</v>
       </c>
@@ -56797,7 +56797,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>2143</v>
       </c>
@@ -56826,7 +56826,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>128902</v>
@@ -56851,7 +56851,7 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>2151</v>
       </c>
@@ -56878,7 +56878,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>2154</v>
       </c>
@@ -56907,7 +56907,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4"/>
       <c r="B73" s="4">
         <v>139798</v>
@@ -56932,7 +56932,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>2160</v>
       </c>
@@ -56961,7 +56961,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4"/>
       <c r="B75" s="4">
         <v>130917</v>
@@ -56986,7 +56986,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>134335</v>
@@ -57011,7 +57011,7 @@
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4"/>
       <c r="B77" s="4">
         <v>128998</v>
@@ -57036,7 +57036,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>2171</v>
       </c>
@@ -57065,7 +57065,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4"/>
       <c r="B79" s="4">
         <v>139906</v>
@@ -57090,7 +57090,7 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>2178</v>
       </c>
@@ -57119,7 +57119,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>2182</v>
       </c>
@@ -57142,7 +57142,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>128750</v>
@@ -57167,7 +57167,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4"/>
       <c r="B83" s="4">
         <v>131951</v>
@@ -57192,7 +57192,7 @@
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
         <v>2190</v>
       </c>
@@ -57219,7 +57219,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="4"/>
       <c r="B85" s="4">
         <v>129153</v>
@@ -57244,7 +57244,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
         <v>2195</v>
       </c>
@@ -57273,7 +57273,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
         <v>2199</v>
       </c>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
         <v>2202</v>
       </c>
@@ -57323,7 +57323,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>2206</v>
       </c>
@@ -57350,7 +57350,7 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="4"/>
       <c r="B90" s="4">
         <v>135438</v>
@@ -57375,7 +57375,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="4"/>
       <c r="B91" s="4">
         <v>127726</v>
@@ -57400,7 +57400,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="4" t="s">
         <v>2213</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="4"/>
       <c r="B93" s="4">
         <v>121980</v>
@@ -57454,7 +57454,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
         <v>128198</v>
@@ -57479,7 +57479,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
         <v>134064</v>
@@ -57504,7 +57504,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="4"/>
       <c r="B96" s="4">
         <v>127304</v>
@@ -57529,7 +57529,7 @@
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="4"/>
       <c r="B97" s="4">
         <v>137390</v>
@@ -57554,7 +57554,7 @@
       </c>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="4"/>
       <c r="B98" s="4">
         <v>120934</v>
@@ -57579,7 +57579,7 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4">
         <v>119584</v>
@@ -57604,7 +57604,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="4"/>
       <c r="B100" s="4">
         <v>132029</v>
@@ -57629,7 +57629,7 @@
       </c>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="4"/>
       <c r="B101" s="4">
         <v>135530</v>
@@ -57654,7 +57654,7 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4"/>
       <c r="B102" s="4">
         <v>129132</v>
@@ -57679,7 +57679,7 @@
       </c>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4">
         <v>124186</v>
@@ -57704,7 +57704,7 @@
       </c>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4"/>
       <c r="B104" s="4">
         <v>136751</v>
@@ -57729,7 +57729,7 @@
       </c>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4">
         <v>130025</v>
@@ -57754,7 +57754,7 @@
       </c>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4">
         <v>130603</v>
@@ -57779,7 +57779,7 @@
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4"/>
       <c r="B107" s="4">
         <v>130817</v>
@@ -57804,7 +57804,7 @@
       </c>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4"/>
       <c r="B108" s="4">
         <v>138213</v>
@@ -57829,7 +57829,7 @@
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4">
         <v>119288</v>
@@ -57856,7 +57856,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4"/>
       <c r="B110" s="4">
         <v>121560</v>
@@ -57881,7 +57881,7 @@
       </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4"/>
       <c r="B111" s="4">
         <v>134323</v>
@@ -57906,7 +57906,7 @@
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
         <v>2256</v>
       </c>
@@ -57935,7 +57935,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4">
         <v>125349</v>
@@ -57960,7 +57960,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
         <v>2262</v>
       </c>
@@ -57987,7 +57987,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4"/>
       <c r="B115" s="4">
         <v>135402</v>
@@ -58012,7 +58012,7 @@
       </c>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4"/>
       <c r="B116" s="4">
         <v>126141</v>
@@ -58037,7 +58037,7 @@
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4"/>
       <c r="B117" s="4">
         <v>127065</v>
@@ -58062,7 +58062,7 @@
       </c>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
         <v>2271</v>
       </c>
@@ -58089,7 +58089,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4"/>
       <c r="B119" s="4">
         <v>124755</v>
@@ -58114,7 +58114,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
         <v>2276</v>
       </c>
@@ -58141,7 +58141,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4"/>
       <c r="B121" s="4">
         <v>125040</v>
@@ -58166,7 +58166,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4"/>
       <c r="B122" s="4">
         <v>122742</v>
@@ -58191,7 +58191,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="4"/>
       <c r="B123" s="4">
         <v>130084</v>
@@ -58216,7 +58216,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="4"/>
       <c r="B124" s="4">
         <v>126597</v>
@@ -58241,7 +58241,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4"/>
       <c r="B125" s="4">
         <v>132879</v>
@@ -58266,7 +58266,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4"/>
       <c r="B126" s="4">
         <v>125406</v>
@@ -58291,7 +58291,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4"/>
       <c r="B127" s="4">
         <v>128093</v>
@@ -58316,7 +58316,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4"/>
       <c r="B128" s="4">
         <v>125642</v>
@@ -58341,7 +58341,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="4"/>
       <c r="B129" s="4">
         <v>134493</v>
@@ -58366,7 +58366,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="4" t="s">
         <v>2299</v>
       </c>
@@ -58395,7 +58395,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="4"/>
       <c r="B131" s="4">
         <v>134044</v>
@@ -58420,7 +58420,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4"/>
       <c r="B132" s="4">
         <v>122443</v>
@@ -58445,7 +58445,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="4"/>
       <c r="B133" s="4">
         <v>127334</v>
@@ -58470,7 +58470,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="4"/>
       <c r="B134" s="4">
         <v>124713</v>
@@ -58495,7 +58495,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="4"/>
       <c r="B135" s="4">
         <v>125111</v>
@@ -58520,7 +58520,7 @@
       </c>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="4"/>
       <c r="B136" s="4">
         <v>126307</v>
@@ -58545,7 +58545,7 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="4"/>
       <c r="B137" s="4">
         <v>127986</v>
@@ -58570,7 +58570,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="4"/>
       <c r="B138" s="4">
         <v>128402</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="4"/>
       <c r="B139" s="4">
         <v>129430</v>
@@ -58620,7 +58620,7 @@
       </c>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4"/>
       <c r="B140" s="4">
         <v>131473</v>
@@ -58645,7 +58645,7 @@
       </c>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="4"/>
       <c r="B141" s="4">
         <v>119784</v>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="4"/>
       <c r="B142" s="4">
         <v>124678</v>
@@ -58695,7 +58695,7 @@
       </c>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="4"/>
       <c r="B143" s="4">
         <v>125658</v>
@@ -58720,7 +58720,7 @@
       </c>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4"/>
       <c r="B144" s="4">
         <v>118839</v>
@@ -58745,7 +58745,7 @@
       </c>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="4"/>
       <c r="B145" s="4">
         <v>125632</v>
@@ -58770,7 +58770,7 @@
       </c>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="4"/>
       <c r="B146" s="4">
         <v>135944</v>
@@ -58795,7 +58795,7 @@
       </c>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="4"/>
       <c r="B147" s="4">
         <v>118660</v>
@@ -58820,7 +58820,7 @@
       </c>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="4"/>
       <c r="B148" s="4">
         <v>131040</v>
@@ -58845,7 +58845,7 @@
       </c>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>125076</v>
@@ -58870,7 +58870,7 @@
       </c>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="4" t="s">
         <v>2343</v>
       </c>
@@ -58899,7 +58899,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="4"/>
       <c r="B151" s="4">
         <v>132145</v>
@@ -58924,7 +58924,7 @@
       </c>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="4" t="s">
         <v>2349</v>
       </c>
@@ -58953,7 +58953,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="4" t="s">
         <v>2353</v>
       </c>
@@ -58982,7 +58982,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="4" t="s">
         <v>2357</v>
       </c>
@@ -59009,7 +59009,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="4" t="s">
         <v>2361</v>
       </c>
@@ -59038,7 +59038,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="4" t="s">
         <v>2364</v>
       </c>
@@ -59067,7 +59067,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="4" t="s">
         <v>2367</v>
       </c>
@@ -59094,7 +59094,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="4" t="s">
         <v>2370</v>
       </c>
@@ -59123,7 +59123,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="4" t="s">
         <v>2373</v>
       </c>
@@ -59148,7 +59148,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="4" t="s">
         <v>2377</v>
       </c>
@@ -59173,7 +59173,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="4" t="s">
         <v>2381</v>
       </c>
@@ -59198,7 +59198,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="4" t="s">
         <v>2385</v>
       </c>

--- a/Starmap/data/constellations.xlsx
+++ b/Starmap/data/constellations.xlsx
@@ -13,12 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="constellations" sheetId="1" r:id="rId1"/>
-    <sheet name="Stars" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId3"/>
-    <sheet name="01 Andromeda" sheetId="2" r:id="rId4"/>
-    <sheet name="02 Aries" sheetId="3" r:id="rId5"/>
-    <sheet name="03 Auriga" sheetId="4" r:id="rId6"/>
-    <sheet name="04 Boötes" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="Stars" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="01 Andromeda" sheetId="2" r:id="rId5"/>
+    <sheet name="02 Aries" sheetId="3" r:id="rId6"/>
+    <sheet name="03 Auriga" sheetId="4" r:id="rId7"/>
+    <sheet name="04 Boötes" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constellations!$A$1:$I$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="3091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="3091">
   <si>
     <t>Andromeda</t>
   </si>
@@ -33860,7 +33861,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5"/>
@@ -33933,459 +33934,459 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2749</v>
+        <v>2771</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F3" s="4">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4">
         <v>90</v>
       </c>
-      <c r="G3" s="4">
-        <v>58</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2396</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2732</v>
+        <v>2776</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
         <v>90</v>
       </c>
-      <c r="G4" s="4">
-        <v>34</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F6" s="4">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2741</v>
+        <v>2772</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F7" s="4">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
         <v>90</v>
       </c>
-      <c r="G7" s="4">
-        <v>57</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4">
         <v>90</v>
       </c>
       <c r="G8" s="4">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2396</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F9" s="4">
         <v>90</v>
       </c>
       <c r="G9" s="4">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2737</v>
+        <v>2725</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F10" s="4">
         <v>90</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>2788</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F11" s="4">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4">
         <v>90</v>
       </c>
-      <c r="G11" s="4">
-        <v>56</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2781</v>
+        <v>2730</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F12" s="4">
         <v>90</v>
       </c>
       <c r="G12" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2728</v>
+        <v>2741</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="F13" s="4">
         <v>90</v>
       </c>
       <c r="G13" s="4">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2777</v>
+        <v>2748</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F14" s="4">
         <v>90</v>
       </c>
       <c r="G14" s="4">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="4">
+        <v>56</v>
+      </c>
+      <c r="G15" s="4">
         <v>90</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2720</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="4">
-        <v>90</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2794</v>
+        <v>2779</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F16" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G16" s="4">
         <v>77</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>349</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F17" s="4">
+        <v>62</v>
+      </c>
+      <c r="G17" s="4">
         <v>90</v>
       </c>
-      <c r="G17" s="4">
-        <v>55</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2717</v>
+        <v>2744</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F18" s="4">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4">
         <v>90</v>
       </c>
-      <c r="G18" s="4">
-        <v>38</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>116</v>
+        <v>2735</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="F19" s="4">
         <v>90</v>
       </c>
       <c r="G19" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>341</v>
@@ -34394,25 +34395,25 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2773</v>
+        <v>2721</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="F20" s="4">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
         <v>90</v>
-      </c>
-      <c r="G20" s="4">
-        <v>48</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>340</v>
@@ -34421,133 +34422,133 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="F21" s="4">
         <v>90</v>
       </c>
       <c r="G21" s="4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2761</v>
+        <v>2716</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F22" s="4">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2719</v>
+        <v>2786</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4">
         <v>90</v>
       </c>
-      <c r="G23" s="4">
-        <v>53</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2</v>
+        <v>2792</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="F24" s="4">
+        <v>19</v>
+      </c>
+      <c r="G24" s="4">
         <v>90</v>
       </c>
-      <c r="G24" s="4">
-        <v>31</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2793</v>
+        <v>2763</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="F25" s="4">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4">
         <v>90</v>
-      </c>
-      <c r="G25" s="4">
-        <v>69</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>245</v>
@@ -34556,52 +34557,52 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="F26" s="4">
         <v>90</v>
       </c>
       <c r="G26" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2715</v>
+        <v>2787</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>356</v>
+        <v>69</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="F27" s="4">
+        <v>44</v>
+      </c>
+      <c r="G27" s="4">
         <v>90</v>
-      </c>
-      <c r="G27" s="4">
-        <v>16</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>245</v>
@@ -34610,187 +34611,187 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2765</v>
+        <v>2781</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="F28" s="4">
         <v>90</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2764</v>
+        <v>2778</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="F29" s="4">
+        <v>65</v>
+      </c>
+      <c r="G29" s="4">
         <v>90</v>
       </c>
-      <c r="G29" s="4">
-        <v>61</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2729</v>
+        <v>2762</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="F30" s="4">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G30" s="4">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2726</v>
+        <v>2795</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F31" s="4">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G31" s="4">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F32" s="4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G32" s="4">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="F33" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" s="4">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2736</v>
+        <v>2780</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="F34" s="4">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>247</v>
@@ -34799,25 +34800,25 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2733</v>
+        <v>2720</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F35" s="4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G35" s="4">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>245</v>
@@ -34826,52 +34827,52 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2745</v>
+        <v>2794</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F36" s="4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G36" s="4">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2756</v>
+        <v>2718</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="F37" s="4">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G37" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>247</v>
@@ -34880,162 +34881,160 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2791</v>
+        <v>2751</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="F38" s="4">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G38" s="4">
         <v>90</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2734</v>
+        <v>2740</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="F39" s="4">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G39" s="4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2714</v>
+        <v>2754</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F40" s="4">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G40" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>335</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="F41" s="4">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G41" s="4">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2716</v>
+        <v>2767</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="F42" s="4">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G42" s="4">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2778</v>
+        <v>2713</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F43" s="4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G43" s="4">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>340</v>
@@ -35044,49 +35043,49 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2762</v>
+        <v>2770</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F44" s="4">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G44" s="4">
         <v>90</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2750</v>
+        <v>2758</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="F45" s="4">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4">
         <v>90</v>
@@ -35098,105 +35097,103 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>2760</v>
+        <v>116</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F46" s="4">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G46" s="4">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2739</v>
+        <v>2724</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F47" s="4">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G47" s="4">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>338</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2723</v>
+        <v>2773</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F48" s="4">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G48" s="4">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>2752</v>
+        <v>2760</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F49" s="4">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G49" s="4">
         <v>90</v>
@@ -35208,130 +35205,132 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2713</v>
+        <v>2739</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F50" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G50" s="4">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2769</v>
+        <v>2755</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F51" s="4">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G51" s="4">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>2774</v>
+        <v>2738</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F52" s="4">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G52" s="4">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2751</v>
+        <v>2761</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F53" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G53" s="4">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2746</v>
+        <v>2783</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F54" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G54" s="4">
         <v>90</v>
@@ -35343,103 +35342,103 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="F55" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G55" s="4">
         <v>90</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>2763</v>
+        <v>2745</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F56" s="4">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G56" s="4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>2775</v>
+        <v>2785</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F57" s="4">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G57" s="4">
         <v>90</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F58" s="4">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G58" s="4">
         <v>90</v>
@@ -35451,54 +35450,52 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2727</v>
+        <v>2759</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F59" s="4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
         <v>90</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>2743</v>
+        <v>2723</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F60" s="4">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G60" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>245</v>
@@ -35507,25 +35504,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>2788</v>
+        <v>2736</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="F61" s="4">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G61" s="4">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>247</v>
@@ -35534,103 +35531,103 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>2753</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F62" s="4">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G62" s="4">
         <v>90</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>2755</v>
+        <v>2719</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F63" s="4">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G63" s="4">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>2754</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F64" s="4">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G64" s="4">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>2766</v>
+        <v>2747</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" s="4">
         <v>90</v>
@@ -35642,25 +35639,25 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>2718</v>
+        <v>2768</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>351</v>
+        <v>168</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="F66" s="4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G66" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>247</v>
@@ -35669,25 +35666,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>2747</v>
+        <v>2726</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F67" s="4">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G67" s="4">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>341</v>
@@ -35696,406 +35693,408 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>2742</v>
+        <v>2769</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F68" s="4">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G68" s="4">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>2782</v>
+        <v>174</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F69" s="4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G69" s="4">
         <v>90</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>2768</v>
+        <v>2774</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F70" s="4">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G70" s="4">
         <v>90</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>2721</v>
+        <v>2789</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="F71" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G71" s="4">
         <v>90</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="F72" s="4">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G72" s="4">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2767</v>
+        <v>2727</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="F73" s="4">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G73" s="4">
         <v>90</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>2789</v>
+        <v>2743</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F74" s="4">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G74" s="4">
         <v>90</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>2772</v>
+        <v>2746</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="F75" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G75" s="4">
         <v>90</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F76" s="4">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G76" s="4">
         <v>90</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>2792</v>
+        <v>2734</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="F77" s="4">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G77" s="4">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>2790</v>
+        <v>2756</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F78" s="4">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G78" s="4">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>2758</v>
+        <v>2729</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="F79" s="4">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G79" s="4">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>2753</v>
+        <v>2766</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F80" s="4">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G80" s="4">
         <v>90</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>2744</v>
+        <v>208</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="F81" s="4">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G81" s="4">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>2785</v>
+        <v>2790</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F82" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G82" s="4">
         <v>90</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I82" s="4"/>
     </row>
@@ -36128,25 +36127,25 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>2784</v>
+        <v>2715</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F84" s="4">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G84" s="4">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>245</v>
@@ -36155,133 +36154,135 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="F85" s="4">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="G85" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>2776</v>
+        <v>2742</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="F86" s="4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G86" s="4">
         <v>90</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>2786</v>
+        <v>2714</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="F87" s="4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G87" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I87" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F88" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G88" s="4">
         <v>90</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2759</v>
+        <v>2764</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G89" s="4">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>339</v>
@@ -36289,6 +36290,11 @@
       <c r="I89" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I89">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36296,9 +36302,2321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="4">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="4">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="4">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4">
+        <v>86</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="4">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.5">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4">
+        <v>90</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.5">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="4">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="4">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.5">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="4">
+        <v>90</v>
+      </c>
+      <c r="G9" s="4">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4">
+        <v>90</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="4">
+        <v>90</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="4">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.5">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="4">
+        <v>90</v>
+      </c>
+      <c r="G13" s="4">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.5">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="4">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4">
+        <v>90</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.5">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="4">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4">
+        <v>77</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.5">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="4">
+        <v>62</v>
+      </c>
+      <c r="G16" s="4">
+        <v>90</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.5">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="4">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>90</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.5">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="4">
+        <v>90</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.5">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4">
+        <v>90</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.5">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="4">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.5">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="4">
+        <v>65</v>
+      </c>
+      <c r="G21" s="4">
+        <v>79</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.5">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>90</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.5">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="4">
+        <v>19</v>
+      </c>
+      <c r="G23" s="4">
+        <v>90</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.5">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46</v>
+      </c>
+      <c r="G24" s="4">
+        <v>90</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.5">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="4">
+        <v>90</v>
+      </c>
+      <c r="G25" s="4">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.5">
+      <c r="A26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4">
+        <v>90</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.5">
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="4">
+        <v>90</v>
+      </c>
+      <c r="G27" s="4">
+        <v>50</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.5">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="4">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4">
+        <v>90</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.5">
+      <c r="A29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="4">
+        <v>65</v>
+      </c>
+      <c r="G29" s="4">
+        <v>90</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.5">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="4">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4">
+        <v>90</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.5">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="4">
+        <v>90</v>
+      </c>
+      <c r="G31" s="4">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.5">
+      <c r="A32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="4">
+        <v>90</v>
+      </c>
+      <c r="G32" s="4">
+        <v>69</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.5">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="4">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4">
+        <v>90</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.5">
+      <c r="A34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="4">
+        <v>90</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.5">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="4">
+        <v>90</v>
+      </c>
+      <c r="G35" s="4">
+        <v>77</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.5">
+      <c r="A36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="4">
+        <v>32</v>
+      </c>
+      <c r="G36" s="4">
+        <v>89</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.5">
+      <c r="A37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="4">
+        <v>50</v>
+      </c>
+      <c r="G37" s="4">
+        <v>90</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.5">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="4">
+        <v>90</v>
+      </c>
+      <c r="G38" s="4">
+        <v>55</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.5">
+      <c r="A39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="4">
+        <v>33</v>
+      </c>
+      <c r="G39" s="4">
+        <v>90</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.5">
+      <c r="A40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="4">
+        <v>90</v>
+      </c>
+      <c r="G40" s="4">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.5">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="4">
+        <v>23</v>
+      </c>
+      <c r="G41" s="4">
+        <v>90</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.5">
+      <c r="A42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="4">
+        <v>54</v>
+      </c>
+      <c r="G42" s="4">
+        <v>83</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.5">
+      <c r="A43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="4">
+        <v>8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>90</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.5">
+      <c r="A44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="4">
+        <v>15</v>
+      </c>
+      <c r="G44" s="4">
+        <v>90</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.5">
+      <c r="A45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="4">
+        <v>90</v>
+      </c>
+      <c r="G45" s="4">
+        <v>33</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.5">
+      <c r="A46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="4">
+        <v>82</v>
+      </c>
+      <c r="G46" s="4">
+        <v>57</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.5">
+      <c r="A47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="4">
+        <v>90</v>
+      </c>
+      <c r="G47" s="4">
+        <v>48</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.5">
+      <c r="A48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="4">
+        <v>62</v>
+      </c>
+      <c r="G48" s="4">
+        <v>90</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.5">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="4">
+        <v>60</v>
+      </c>
+      <c r="G49" s="4">
+        <v>90</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.5">
+      <c r="A50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="4">
+        <v>34</v>
+      </c>
+      <c r="G50" s="4">
+        <v>90</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.5">
+      <c r="A51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" s="4">
+        <v>90</v>
+      </c>
+      <c r="G51" s="4">
+        <v>28</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.5">
+      <c r="A52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" s="4">
+        <v>90</v>
+      </c>
+      <c r="G52" s="4">
+        <v>42</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.5">
+      <c r="A53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
+        <v>90</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.5">
+      <c r="A54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" s="4">
+        <v>45</v>
+      </c>
+      <c r="G54" s="4">
+        <v>90</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.5">
+      <c r="A55" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F55" s="4">
+        <v>78</v>
+      </c>
+      <c r="G55" s="4">
+        <v>87</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.5">
+      <c r="A56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="4">
+        <v>14</v>
+      </c>
+      <c r="G56" s="4">
+        <v>90</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.5">
+      <c r="A57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="4">
+        <v>29</v>
+      </c>
+      <c r="G57" s="4">
+        <v>90</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.5">
+      <c r="A58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>90</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.5">
+      <c r="A59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="4">
+        <v>59</v>
+      </c>
+      <c r="G59" s="4">
+        <v>75</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.5">
+      <c r="A60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="4">
+        <v>79</v>
+      </c>
+      <c r="G60" s="4">
+        <v>67</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.5">
+      <c r="A61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F61" s="4">
+        <v>15</v>
+      </c>
+      <c r="G61" s="4">
+        <v>90</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.5">
+      <c r="A62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="4">
+        <v>90</v>
+      </c>
+      <c r="G62" s="4">
+        <v>53</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.5">
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="4">
+        <v>90</v>
+      </c>
+      <c r="G63" s="4">
+        <v>31</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.5">
+      <c r="A64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" s="4">
+        <v>32</v>
+      </c>
+      <c r="G64" s="4">
+        <v>90</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.5">
+      <c r="A65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="4">
+        <v>26</v>
+      </c>
+      <c r="G65" s="4">
+        <v>90</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.5">
+      <c r="A66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F66" s="4">
+        <v>83</v>
+      </c>
+      <c r="G66" s="4">
+        <v>56</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.5">
+      <c r="A67" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="4">
+        <v>53</v>
+      </c>
+      <c r="G67" s="4">
+        <v>56</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.5">
+      <c r="A68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="4">
+        <v>39</v>
+      </c>
+      <c r="G68" s="4">
+        <v>90</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.5">
+      <c r="A69" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F69" s="4">
+        <v>52</v>
+      </c>
+      <c r="G69" s="4">
+        <v>90</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.5">
+      <c r="A70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F70" s="4">
+        <v>23</v>
+      </c>
+      <c r="G70" s="4">
+        <v>90</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.5">
+      <c r="A71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" s="4">
+        <v>90</v>
+      </c>
+      <c r="G71" s="4">
+        <v>69</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.5">
+      <c r="A72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" s="4">
+        <v>44</v>
+      </c>
+      <c r="G72" s="4">
+        <v>90</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.5">
+      <c r="A73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F73" s="4">
+        <v>44</v>
+      </c>
+      <c r="G73" s="4">
+        <v>90</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.5">
+      <c r="A74" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="4">
+        <v>50</v>
+      </c>
+      <c r="G74" s="4">
+        <v>90</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.5">
+      <c r="A75" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F75" s="4">
+        <v>74</v>
+      </c>
+      <c r="G75" s="4">
+        <v>90</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.5">
+      <c r="A76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F76" s="4">
+        <v>74</v>
+      </c>
+      <c r="G76" s="4">
+        <v>64</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.5">
+      <c r="A77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" s="4">
+        <v>78</v>
+      </c>
+      <c r="G77" s="4">
+        <v>83</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.5">
+      <c r="A78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F78" s="4">
+        <v>88</v>
+      </c>
+      <c r="G78" s="4">
+        <v>58</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.5">
+      <c r="A79" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" s="4">
+        <v>33</v>
+      </c>
+      <c r="G79" s="4">
+        <v>90</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.5">
+      <c r="A80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" s="4">
+        <v>90</v>
+      </c>
+      <c r="G80" s="4">
+        <v>52</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.5">
+      <c r="A81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="4">
+        <v>19</v>
+      </c>
+      <c r="G81" s="4">
+        <v>90</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.5">
+      <c r="A82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" s="4">
+        <v>14</v>
+      </c>
+      <c r="G82" s="4">
+        <v>90</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.5">
+      <c r="A83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="4">
+        <v>90</v>
+      </c>
+      <c r="G83" s="4">
+        <v>16</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.5">
+      <c r="A84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="4">
+        <v>90</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.5">
+      <c r="A85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F85" s="4">
+        <v>32</v>
+      </c>
+      <c r="G85" s="4">
+        <v>90</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.5">
+      <c r="A86" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="4">
+        <v>67</v>
+      </c>
+      <c r="G86" s="4">
+        <v>75</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.5">
+      <c r="A87" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F87" s="4">
+        <v>14</v>
+      </c>
+      <c r="G87" s="4">
+        <v>90</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.5">
+      <c r="A88" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="4">
+        <v>90</v>
+      </c>
+      <c r="G88" s="4">
+        <v>61</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -40536,7 +42854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
@@ -42119,7 +44437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K178"/>
   <sheetViews>
@@ -46967,7 +49285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
@@ -50036,7 +52354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I179"/>
   <sheetViews>
@@ -54939,7 +57257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I162"/>
   <sheetViews>
